--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value141.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value141.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9258699238763074</v>
+        <v>1.578048586845398</v>
       </c>
       <c r="B1">
-        <v>1.779317592081074</v>
+        <v>1.440586447715759</v>
       </c>
       <c r="C1">
-        <v>3.132073883663017</v>
+        <v>5.569024085998535</v>
       </c>
       <c r="D1">
-        <v>2.573626125999611</v>
+        <v>2.111257076263428</v>
       </c>
       <c r="E1">
-        <v>1.035526154345805</v>
+        <v>0.8993200063705444</v>
       </c>
     </row>
   </sheetData>
